--- a/BackLog Assistlist.3.xlsx
+++ b/BackLog Assistlist.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Documents\GitHub\Nina-s-big-little-adventure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harold\Desktop\Gamelab1Groep2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="381">
   <si>
     <t>Concept Art</t>
   </si>
@@ -140,9 +140,6 @@
     <t>4UW_P</t>
   </si>
   <si>
-    <t>4UW_E</t>
-  </si>
-  <si>
     <t>5R_MC</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
     <t>Poison Death</t>
   </si>
   <si>
-    <t>Spinnenweb</t>
-  </si>
-  <si>
     <t>8CS_HUD_HB</t>
   </si>
   <si>
@@ -317,9 +311,6 @@
     <t>Lightstaber</t>
   </si>
   <si>
-    <t>Gif Fles</t>
-  </si>
-  <si>
     <t>Daddylegs</t>
   </si>
   <si>
@@ -494,9 +485,6 @@
     <t>3D_MC_NN</t>
   </si>
   <si>
-    <t>2D_TX_SP</t>
-  </si>
-  <si>
     <t>2D_TX_T</t>
   </si>
   <si>
@@ -560,9 +548,6 @@
     <t>Pick Up</t>
   </si>
   <si>
-    <t>Mieren Hit</t>
-  </si>
-  <si>
     <t>Shield Hit</t>
   </si>
   <si>
@@ -572,60 +557,15 @@
     <t>Water</t>
   </si>
   <si>
-    <t>Nina Lopen</t>
-  </si>
-  <si>
-    <t>Mier Lopen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mier Lopen</t>
-  </si>
-  <si>
-    <t>Nina Rennen</t>
-  </si>
-  <si>
     <t>Nina springer</t>
   </si>
   <si>
-    <t>Nina aanvallen</t>
-  </si>
-  <si>
-    <t>Nina Schild</t>
-  </si>
-  <si>
-    <t>Nina adem Inhouden</t>
-  </si>
-  <si>
     <t>Background Music</t>
   </si>
   <si>
-    <t>Mier aanvallen</t>
-  </si>
-  <si>
-    <t>Nina Gehit</t>
-  </si>
-  <si>
-    <t>Suikerkklonktje</t>
-  </si>
-  <si>
     <t>Collectlebles</t>
   </si>
   <si>
-    <t>Mier gehit</t>
-  </si>
-  <si>
-    <t>Blaadjes op water</t>
-  </si>
-  <si>
-    <t>Gif</t>
-  </si>
-  <si>
-    <t>Libelle Sounds</t>
-  </si>
-  <si>
-    <t>Mier Sounds</t>
-  </si>
-  <si>
     <t>Mina Ray Sounds</t>
   </si>
   <si>
@@ -677,9 +617,6 @@
     <t>Sand</t>
   </si>
   <si>
-    <t>SandPit</t>
-  </si>
-  <si>
     <t>WaterPool</t>
   </si>
   <si>
@@ -842,15 +779,9 @@
     <t>2D_HUD_DS</t>
   </si>
   <si>
-    <t>Sand Pit</t>
-  </si>
-  <si>
     <t>Grass Wall</t>
   </si>
   <si>
-    <t>3D_E_SP</t>
-  </si>
-  <si>
     <t>3D_E_GW</t>
   </si>
   <si>
@@ -890,9 +821,6 @@
     <t>4UW_NP_DF</t>
   </si>
   <si>
-    <t>4UW_E_A</t>
-  </si>
-  <si>
     <t>DragonFLy</t>
   </si>
   <si>
@@ -908,6 +836,9 @@
     <t>A6_NP_DF</t>
   </si>
   <si>
+    <t>3D_P_SW</t>
+  </si>
+  <si>
     <t>3D_P_GS</t>
   </si>
   <si>
@@ -992,9 +923,6 @@
     <t>4UW_E_SA</t>
   </si>
   <si>
-    <t>4UW_E_SP</t>
-  </si>
-  <si>
     <t>4UW_E_WP</t>
   </si>
   <si>
@@ -1004,6 +932,9 @@
     <t>4UW_B_DH</t>
   </si>
   <si>
+    <t>4UW_P_SW</t>
+  </si>
+  <si>
     <t>4UW_P_GS</t>
   </si>
   <si>
@@ -1085,13 +1016,154 @@
     <t>3D_E_SA</t>
   </si>
   <si>
-    <t>Cobweb</t>
-  </si>
-  <si>
-    <t>3D_P_CW</t>
-  </si>
-  <si>
-    <t>4UW_P_CW</t>
+    <t>SandBox</t>
+  </si>
+  <si>
+    <t>3D_E_SB</t>
+  </si>
+  <si>
+    <t>2D_TX_SB</t>
+  </si>
+  <si>
+    <t>4UW_E_SB</t>
+  </si>
+  <si>
+    <t>4UW_EN_A</t>
+  </si>
+  <si>
+    <t>Nina Walk</t>
+  </si>
+  <si>
+    <t>Ant Hit</t>
+  </si>
+  <si>
+    <t>Ant Lopen</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>Ant Sounds</t>
+  </si>
+  <si>
+    <t>Ant gehit</t>
+  </si>
+  <si>
+    <t>Ant aanvallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ant Lopen</t>
+  </si>
+  <si>
+    <t>Dragon Fly Sounds</t>
+  </si>
+  <si>
+    <t>Leaves on water</t>
+  </si>
+  <si>
+    <t>SugerCubes</t>
+  </si>
+  <si>
+    <t>Nina Attack</t>
+  </si>
+  <si>
+    <t>Nina Being hit</t>
+  </si>
+  <si>
+    <t>Nina holding breath</t>
+  </si>
+  <si>
+    <t>Nina shield</t>
+  </si>
+  <si>
+    <t>Nina Run</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Unwrap</t>
+  </si>
+  <si>
+    <t>9P_WT_NJ</t>
+  </si>
+  <si>
+    <t>9P_WT_NW</t>
+  </si>
+  <si>
+    <t>9P_P_PU</t>
+  </si>
+  <si>
+    <t>9P_P_SH</t>
+  </si>
+  <si>
+    <t>9P_EN_AH</t>
+  </si>
+  <si>
+    <t>9P_EN_PB</t>
+  </si>
+  <si>
+    <t>9P_EN_AL</t>
+  </si>
+  <si>
+    <t>9P_LD_W</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Cheat Mode</t>
+  </si>
+  <si>
+    <t>Weapon Switch</t>
+  </si>
+  <si>
+    <t>Save/Load</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Leveling System</t>
+  </si>
+  <si>
+    <t>Weapon Effect</t>
+  </si>
+  <si>
+    <t>Crafting system</t>
+  </si>
+  <si>
+    <t>Time Bonus</t>
+  </si>
+  <si>
+    <t>8CS_EX</t>
+  </si>
+  <si>
+    <t>8CS_EX_CM</t>
+  </si>
+  <si>
+    <t>8CS_EX_WS</t>
+  </si>
+  <si>
+    <t>8CS_EX_SL</t>
+  </si>
+  <si>
+    <t>8CS_EX_LS</t>
+  </si>
+  <si>
+    <t>8CS_EX_TB</t>
+  </si>
+  <si>
+    <t>8CS_EX_WE</t>
+  </si>
+  <si>
+    <t>8CS_EX_V</t>
+  </si>
+  <si>
+    <t>8CS_EX_P</t>
+  </si>
+  <si>
+    <t>8CS_EX_CS</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1252,6 +1324,7 @@
     <xf numFmtId="16" fontId="2" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -1562,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K332"/>
+  <dimension ref="A1:K347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,13 +1657,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1602,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -1611,7 +1684,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="K1" s="12"/>
     </row>
@@ -1619,7 +1692,9 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1688,7 +1763,7 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -1730,7 +1805,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K10" s="12"/>
     </row>
@@ -1750,7 +1825,9 @@
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1763,7 +1840,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="4" t="s">
@@ -1780,16 +1857,16 @@
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="1" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1800,16 +1877,16 @@
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="1" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
@@ -1820,16 +1897,16 @@
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="1" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G16" s="1">
         <v>4</v>
@@ -1840,16 +1917,16 @@
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="1" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -1860,16 +1937,16 @@
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="1" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -1880,16 +1957,16 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="1" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G19" s="1">
         <v>2</v>
@@ -1900,16 +1977,16 @@
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="1" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
@@ -1920,16 +1997,16 @@
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
@@ -1940,16 +2017,16 @@
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="1" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
@@ -1960,16 +2037,16 @@
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="1" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G23" s="1">
         <v>2</v>
@@ -1980,16 +2057,16 @@
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="1" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -2000,16 +2077,16 @@
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="1" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -2020,16 +2097,16 @@
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
@@ -2040,16 +2117,16 @@
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="1" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
@@ -2060,16 +2137,16 @@
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="1" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G28" s="1">
         <v>3</v>
@@ -2080,16 +2157,16 @@
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="1" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -2100,16 +2177,16 @@
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G30" s="1">
         <v>2</v>
@@ -2120,16 +2197,16 @@
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G31" s="1">
         <v>2</v>
@@ -2140,16 +2217,16 @@
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -2160,13 +2237,16 @@
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="1" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>243</v>
+        <v>222</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G33" s="1">
         <v>4</v>
@@ -2177,13 +2257,16 @@
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="1" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>242</v>
+        <v>221</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -2194,13 +2277,16 @@
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="1" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>241</v>
+        <v>220</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -2211,16 +2297,16 @@
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G36" s="1">
         <v>5</v>
@@ -2231,16 +2317,16 @@
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="1" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -2251,16 +2337,16 @@
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="1" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -2271,16 +2357,16 @@
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="1" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -2291,16 +2377,16 @@
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="1" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G40" s="1">
         <v>2</v>
@@ -2311,16 +2397,16 @@
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="1" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G41" s="1">
         <v>2</v>
@@ -2331,16 +2417,16 @@
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="1" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -2351,16 +2437,16 @@
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G43" s="1">
         <v>2</v>
@@ -2371,16 +2457,16 @@
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="1" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G44" s="1">
         <v>4</v>
@@ -2391,16 +2477,16 @@
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G45" s="1">
         <v>4</v>
@@ -2411,16 +2497,16 @@
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="1" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G46" s="1">
         <v>2</v>
@@ -2431,16 +2517,16 @@
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="1" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="E47" s="1">
         <v>3</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -2451,16 +2537,16 @@
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G48" s="1">
         <v>3</v>
@@ -2471,16 +2557,16 @@
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="1" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G49" s="1">
         <v>2</v>
@@ -2491,16 +2577,16 @@
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G50" s="1">
         <v>2</v>
@@ -2511,16 +2597,16 @@
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G51" s="1">
         <v>3</v>
@@ -2531,16 +2617,16 @@
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="E52" s="1">
         <v>3</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G52" s="1">
         <v>1</v>
@@ -2577,16 +2663,16 @@
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G56" s="1">
         <v>1</v>
@@ -2597,16 +2683,16 @@
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G57" s="1">
         <v>1</v>
@@ -2617,16 +2703,16 @@
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="E58" s="1">
         <v>3</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G58" s="1">
         <v>1</v>
@@ -2637,16 +2723,16 @@
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="1" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="E59" s="1">
         <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G59" s="1">
         <v>1</v>
@@ -2657,16 +2743,16 @@
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="1" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
@@ -2677,16 +2763,16 @@
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G61" s="1">
         <v>3</v>
@@ -2697,16 +2783,16 @@
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G62" s="1">
         <v>2</v>
@@ -2717,16 +2803,16 @@
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="K63" s="12"/>
     </row>
@@ -2734,16 +2820,16 @@
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="1" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
@@ -2754,16 +2840,16 @@
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="1" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="E65" s="1">
         <v>3</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G65" s="1">
         <v>2</v>
@@ -2819,7 +2905,9 @@
       <c r="A70" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="5"/>
+      <c r="B70" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -2832,7 +2920,7 @@
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="5" t="s">
@@ -2849,16 +2937,16 @@
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="1" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G72" s="1">
         <v>2</v>
@@ -2876,16 +2964,16 @@
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="1" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G73" s="1">
         <v>1</v>
@@ -2903,16 +2991,16 @@
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="1" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G74" s="1">
         <v>2</v>
@@ -2930,22 +3018,24 @@
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="1" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G75" s="1">
         <v>2</v>
       </c>
       <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
+      <c r="I75" s="13">
+        <v>42303</v>
+      </c>
       <c r="J75" s="15"/>
       <c r="K75" s="12"/>
     </row>
@@ -2953,16 +3043,16 @@
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="1" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G76" s="1">
         <v>1</v>
@@ -2973,23 +3063,23 @@
       <c r="I76" s="13">
         <v>42279</v>
       </c>
-      <c r="J76" s="13"/>
+      <c r="J76" s="15"/>
       <c r="K76" s="12"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="1" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G77" s="1">
         <v>3</v>
@@ -3000,25 +3090,32 @@
       <c r="I77" s="13">
         <v>42286</v>
       </c>
+      <c r="J77" s="14"/>
       <c r="K77" s="12"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E78" s="1">
         <v>3</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G78" s="1">
         <v>1</v>
+      </c>
+      <c r="H78" s="13">
+        <v>42289</v>
+      </c>
+      <c r="I78" s="13">
+        <v>42293</v>
       </c>
       <c r="K78" s="12"/>
     </row>
@@ -3144,16 +3241,16 @@
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G99" s="1">
         <v>5</v>
@@ -3199,16 +3296,16 @@
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="1" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="E102" s="1">
         <v>2</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G102" s="1">
         <v>3</v>
@@ -3219,6 +3316,7 @@
       <c r="I102" s="13">
         <v>42286</v>
       </c>
+      <c r="J102" s="14"/>
       <c r="K102" s="12"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -3253,16 +3351,16 @@
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="1" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G105" s="1">
         <v>5</v>
@@ -3280,16 +3378,16 @@
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="1" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="E106" s="1">
         <v>2</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G106" s="1">
         <v>4</v>
@@ -3300,6 +3398,7 @@
       <c r="I106" s="13">
         <v>42279</v>
       </c>
+      <c r="J106" s="14"/>
       <c r="K106" s="12"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -3334,123 +3433,148 @@
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="1" t="s">
-        <v>354</v>
+        <v>205</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>355</v>
+        <v>271</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G109" s="1">
         <v>2</v>
       </c>
+      <c r="H109" s="13">
+        <v>42282</v>
+      </c>
+      <c r="I109" s="13">
+        <v>42286</v>
+      </c>
+      <c r="J109" s="14"/>
       <c r="K109" s="12"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="1" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G110" s="1">
         <v>1</v>
       </c>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
+      <c r="H110" s="13">
+        <v>42289</v>
+      </c>
+      <c r="I110" s="13">
+        <v>42293</v>
+      </c>
+      <c r="J110" s="15"/>
       <c r="K110" s="12"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="1" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="E111" s="1">
         <v>3</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G111" s="1">
         <v>1</v>
       </c>
+      <c r="I111" s="13">
+        <v>42303</v>
+      </c>
+      <c r="J111" s="14"/>
       <c r="K111" s="12"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="1" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E112" s="1">
         <v>2</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G112" s="1">
         <v>1</v>
       </c>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
+      <c r="H112" s="13">
+        <v>42289</v>
+      </c>
+      <c r="I112" s="13">
+        <v>42293</v>
+      </c>
+      <c r="J112" s="14"/>
       <c r="K112" s="12"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G113" s="1">
         <v>3</v>
       </c>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
+      <c r="H113" s="13">
+        <v>42289</v>
+      </c>
+      <c r="I113" s="13">
+        <v>42293</v>
+      </c>
+      <c r="J113" s="14"/>
       <c r="K113" s="12"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="1" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G114" s="1">
         <v>2</v>
@@ -3461,22 +3585,23 @@
       <c r="I114" s="13">
         <v>42279</v>
       </c>
+      <c r="J114" s="14"/>
       <c r="K114" s="12"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="1" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G115" s="1">
         <v>2</v>
@@ -3487,45 +3612,50 @@
       <c r="I115" s="13">
         <v>42279</v>
       </c>
+      <c r="J115" s="14"/>
       <c r="K115" s="12"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="1" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G116" s="1">
         <v>1</v>
       </c>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
+      <c r="H116" s="13">
+        <v>42282</v>
+      </c>
+      <c r="I116" s="13">
+        <v>42286</v>
+      </c>
+      <c r="J116" s="15"/>
       <c r="K116" s="12"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G117" s="1">
         <v>2</v>
@@ -3543,16 +3673,16 @@
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G118" s="1">
         <v>2</v>
@@ -3570,96 +3700,118 @@
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="1" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="E119" s="1">
         <v>3</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G119" s="1">
         <v>1</v>
       </c>
+      <c r="I119" s="13">
+        <v>42303</v>
+      </c>
+      <c r="J119" s="14"/>
       <c r="K119" s="12"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="1" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="E120" s="1">
         <v>2</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G120" s="1">
         <v>2</v>
       </c>
+      <c r="H120" s="13">
+        <v>42289</v>
+      </c>
+      <c r="I120" s="13">
+        <v>42293</v>
+      </c>
+      <c r="J120" s="14"/>
       <c r="K120" s="12"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="1" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="E121" s="1">
         <v>2</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G121" s="1">
         <v>2</v>
       </c>
+      <c r="H121" s="13">
+        <v>42289</v>
+      </c>
+      <c r="I121" s="13">
+        <v>42293</v>
+      </c>
+      <c r="J121" s="14"/>
       <c r="K121" s="12"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="1" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="E122" s="1">
         <v>3</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G122" s="1">
         <v>1</v>
       </c>
+      <c r="I122" s="13">
+        <v>42303</v>
+      </c>
+      <c r="J122" s="14"/>
       <c r="K122" s="12"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="1" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="E123" s="1">
         <v>2</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G123" s="1">
         <v>1</v>
@@ -3670,109 +3822,131 @@
       <c r="I123" s="13">
         <v>42286</v>
       </c>
+      <c r="J123" s="14"/>
       <c r="K123" s="12"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="1" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="E124" s="1">
         <v>3</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G124" s="1">
         <v>2</v>
       </c>
+      <c r="H124" s="13">
+        <v>42282</v>
+      </c>
+      <c r="I124" s="13">
+        <v>42286</v>
+      </c>
+      <c r="J124" s="14"/>
       <c r="K124" s="12"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="1" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="E125" s="1">
         <v>3</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G125" s="1">
         <v>1</v>
       </c>
+      <c r="H125" s="13">
+        <v>42282</v>
+      </c>
+      <c r="I125" s="13">
+        <v>42286</v>
+      </c>
+      <c r="J125" s="14"/>
       <c r="K125" s="12"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="1" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="E126" s="1">
         <v>3</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G126" s="1">
         <v>1</v>
       </c>
+      <c r="H126" s="13">
+        <v>42289</v>
+      </c>
+      <c r="I126" s="13">
+        <v>42293</v>
+      </c>
+      <c r="J126" s="14"/>
       <c r="K126" s="12"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="E127" s="1">
         <v>1</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G127" s="1">
         <v>4</v>
       </c>
       <c r="H127" s="13">
-        <v>42275</v>
+        <v>42282</v>
       </c>
       <c r="I127" s="13">
-        <v>42279</v>
-      </c>
-      <c r="J127"/>
+        <v>42286</v>
+      </c>
+      <c r="J127" s="16"/>
       <c r="K127" s="12"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="1" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="E128" s="1">
         <v>1</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G128" s="1">
         <v>1</v>
@@ -3783,62 +3957,74 @@
       <c r="I128" s="13">
         <v>42279</v>
       </c>
+      <c r="J128" s="14"/>
       <c r="K128" s="12"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="1" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="E129" s="1">
         <v>3</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G129" s="1">
         <v>1</v>
       </c>
+      <c r="H129" s="13">
+        <v>42289</v>
+      </c>
+      <c r="I129" s="13">
+        <v>42293</v>
+      </c>
+      <c r="J129" s="14"/>
       <c r="K129" s="12"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="E130" s="1">
         <v>3</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G130" s="1">
         <v>3</v>
       </c>
+      <c r="I130" s="13">
+        <v>42303</v>
+      </c>
+      <c r="J130" s="14"/>
       <c r="K130" s="12"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="1" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="E131" s="1">
         <v>2</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G131" s="1">
         <v>2</v>
@@ -3849,22 +4035,23 @@
       <c r="I131" s="13">
         <v>42286</v>
       </c>
+      <c r="J131" s="14"/>
       <c r="K131" s="12"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="E132" s="1">
         <v>2</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G132" s="1">
         <v>2</v>
@@ -3875,22 +4062,23 @@
       <c r="I132" s="13">
         <v>42286</v>
       </c>
+      <c r="J132" s="14"/>
       <c r="K132" s="12"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E133" s="1">
         <v>1</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G133" s="1">
         <v>3</v>
@@ -3901,22 +4089,23 @@
       <c r="I133" s="13">
         <v>42272</v>
       </c>
+      <c r="J133" s="14"/>
       <c r="K133" s="12"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="E134" s="1">
         <v>3</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G134" s="1">
         <v>2</v>
@@ -3965,16 +4154,16 @@
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="1" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G139" s="1">
         <v>5</v>
@@ -4004,7 +4193,9 @@
       <c r="A141" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B141" s="6"/>
+      <c r="B141" s="6" t="s">
+        <v>353</v>
+      </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
@@ -4034,16 +4225,16 @@
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E143" s="1">
         <v>1</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G143" s="1">
         <v>5</v>
@@ -4082,16 +4273,16 @@
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="1" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="E146" s="1">
         <v>2</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G146" s="1">
         <v>5</v>
@@ -4113,7 +4304,7 @@
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
       <c r="B148" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C148" s="12"/>
       <c r="D148" s="6" t="s">
@@ -4130,16 +4321,16 @@
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="1" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="E149" s="1">
         <v>1</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G149" s="1">
         <v>1</v>
@@ -4151,16 +4342,16 @@
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="1" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G150" s="1">
         <v>1</v>
@@ -4172,16 +4363,16 @@
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="1" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E151" s="1">
         <v>1</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G151" s="1">
         <v>1</v>
@@ -4193,16 +4384,16 @@
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="1" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="E152" s="1">
         <v>1</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G152" s="1">
         <v>1</v>
@@ -4213,16 +4404,16 @@
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="1" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E153" s="1">
         <v>1</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G153" s="1">
         <v>1</v>
@@ -4233,16 +4424,16 @@
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="1" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="E154" s="1">
         <v>1</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G154" s="1">
         <v>3</v>
@@ -4253,16 +4444,16 @@
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E155" s="1">
         <v>3</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G155" s="1">
         <v>1</v>
@@ -4316,16 +4507,16 @@
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="1" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="E161" s="1">
         <v>1</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G161" s="1">
         <v>4</v>
@@ -4336,16 +4527,16 @@
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="1" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="E162" s="1">
         <v>2</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G162" s="1">
         <v>4</v>
@@ -4384,16 +4575,16 @@
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="1" t="s">
-        <v>354</v>
+        <v>205</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="E165" s="1">
         <v>3</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G165" s="1">
         <v>1</v>
@@ -4404,16 +4595,16 @@
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="1" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="E166" s="1">
         <v>3</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G166" s="1">
         <v>1</v>
@@ -4424,16 +4615,16 @@
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="1" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="E167" s="1">
         <v>3</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G167" s="1">
         <v>2</v>
@@ -4444,16 +4635,16 @@
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="1" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="E168" s="1">
         <v>2</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G168" s="1">
         <v>1</v>
@@ -4464,16 +4655,16 @@
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="E169" s="1">
         <v>1</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G169" s="1">
         <v>2</v>
@@ -4484,16 +4675,16 @@
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="1" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="E170" s="1">
         <v>2</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G170" s="1">
         <v>2</v>
@@ -4504,16 +4695,16 @@
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="1" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="E171" s="1">
         <v>1</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G171" s="1">
         <v>2</v>
@@ -4524,16 +4715,16 @@
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="1" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="E172" s="1">
         <v>1</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G172" s="1">
         <v>1</v>
@@ -4544,16 +4735,16 @@
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="E173" s="1">
         <v>1</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G173" s="1">
         <v>2</v>
@@ -4564,16 +4755,16 @@
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="E174" s="1">
         <v>1</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G174" s="1">
         <v>3</v>
@@ -4584,16 +4775,16 @@
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="1" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="E175" s="1">
         <v>3</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G175" s="1">
         <v>1</v>
@@ -4604,16 +4795,16 @@
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="1" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="E176" s="1">
         <v>2</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G176" s="1">
         <v>3</v>
@@ -4624,16 +4815,16 @@
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="1" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="E177" s="1">
         <v>2</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G177" s="1">
         <v>3</v>
@@ -4644,16 +4835,16 @@
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="1" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="E178" s="1">
         <v>3</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G178" s="1">
         <v>2</v>
@@ -4664,16 +4855,16 @@
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="1" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="E179" s="1">
         <v>2</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G179" s="1">
         <v>1</v>
@@ -4684,16 +4875,16 @@
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="1" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="E180" s="1">
         <v>3</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G180" s="1">
         <v>1</v>
@@ -4704,16 +4895,16 @@
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="1" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="E181" s="1">
         <v>3</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G181" s="1">
         <v>1</v>
@@ -4724,16 +4915,16 @@
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="1" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="E182" s="1">
         <v>3</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G182" s="1">
         <v>1</v>
@@ -4744,16 +4935,16 @@
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="E183" s="1">
         <v>1</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G183" s="1">
         <v>5</v>
@@ -4764,16 +4955,16 @@
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="1" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="E184" s="1">
         <v>3</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G184" s="1">
         <v>2</v>
@@ -4784,16 +4975,16 @@
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="1" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="E185" s="1">
         <v>2</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G185" s="1">
         <v>1</v>
@@ -4804,16 +4995,16 @@
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="E186" s="1">
         <v>3</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G186" s="1">
         <v>3</v>
@@ -4824,16 +5015,16 @@
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="1" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="E187" s="1">
         <v>2</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G187" s="1">
         <v>2</v>
@@ -4844,16 +5035,16 @@
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="E188" s="1">
         <v>2</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G188" s="1">
         <v>2</v>
@@ -4864,16 +5055,16 @@
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G189" s="1">
         <v>3</v>
@@ -4884,16 +5075,16 @@
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="E190" s="1">
         <v>3</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G190" s="1">
         <v>2</v>
@@ -4979,7 +5170,7 @@
       </c>
       <c r="C204" s="12"/>
       <c r="D204" s="6" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
@@ -4992,16 +5183,16 @@
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
       <c r="C205" s="1" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G205" s="1">
         <v>5</v>
@@ -5024,7 +5215,9 @@
       <c r="A207" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B207" s="8"/>
+      <c r="B207" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="C207" s="8"/>
       <c r="D207" s="8"/>
       <c r="E207" s="8"/>
@@ -5041,7 +5234,7 @@
       </c>
       <c r="C208" s="12"/>
       <c r="D208" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E208" s="12"/>
       <c r="F208" s="12"/>
@@ -5054,16 +5247,16 @@
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E209" s="1">
         <v>1</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G209" s="1">
         <v>5</v>
@@ -5089,7 +5282,7 @@
       </c>
       <c r="C211" s="12"/>
       <c r="D211" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E211" s="12"/>
       <c r="F211" s="12"/>
@@ -5102,16 +5295,16 @@
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="1" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="E212" s="1">
         <v>3</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G212" s="1">
         <v>4</v>
@@ -5137,7 +5330,7 @@
       </c>
       <c r="C214" s="12"/>
       <c r="D214" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
@@ -5150,16 +5343,16 @@
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="1" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="E215" s="1">
         <v>1</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G215" s="1">
         <v>5</v>
@@ -5180,9 +5373,11 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B217" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>352</v>
+      </c>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
@@ -5199,7 +5394,7 @@
       </c>
       <c r="C218" s="12"/>
       <c r="D218" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E218" s="12"/>
       <c r="F218" s="12"/>
@@ -5212,16 +5407,16 @@
       <c r="A219" s="12"/>
       <c r="B219" s="12"/>
       <c r="C219" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E219" s="1">
         <v>1</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G219" s="1">
         <v>5</v>
@@ -5247,7 +5442,7 @@
       </c>
       <c r="C221" s="12"/>
       <c r="D221" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E221" s="12"/>
       <c r="F221" s="12"/>
@@ -5260,16 +5455,16 @@
       <c r="A222" s="12"/>
       <c r="B222" s="12"/>
       <c r="C222" s="1" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="E222" s="1">
         <v>3</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G222" s="1">
         <v>2</v>
@@ -5280,16 +5475,16 @@
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
       <c r="C223" s="1" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E223" s="1">
         <v>3</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G223" s="1">
         <v>1</v>
@@ -5315,7 +5510,7 @@
       </c>
       <c r="C225" s="12"/>
       <c r="D225" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E225" s="12"/>
       <c r="F225" s="12"/>
@@ -5328,16 +5523,16 @@
       <c r="A226" s="12"/>
       <c r="B226" s="12"/>
       <c r="C226" s="1" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="E226" s="1">
         <v>2</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G226" s="1">
         <v>5</v>
@@ -5358,9 +5553,11 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B228" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
@@ -5377,7 +5574,7 @@
       </c>
       <c r="C229" s="12"/>
       <c r="D229" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E229" s="12"/>
       <c r="F229" s="12"/>
@@ -5390,7 +5587,7 @@
       <c r="A230" s="12"/>
       <c r="B230" s="12"/>
       <c r="C230" s="1" t="s">
-        <v>183</v>
+        <v>336</v>
       </c>
       <c r="K230" s="12"/>
     </row>
@@ -5403,7 +5600,7 @@
       <c r="A232" s="12"/>
       <c r="B232" s="12"/>
       <c r="C232" s="1" t="s">
-        <v>186</v>
+        <v>351</v>
       </c>
       <c r="K232" s="12"/>
     </row>
@@ -5411,7 +5608,7 @@
       <c r="A233" s="12"/>
       <c r="B233" s="12"/>
       <c r="C233" s="1" t="s">
-        <v>189</v>
+        <v>350</v>
       </c>
       <c r="K233" s="12"/>
     </row>
@@ -5419,7 +5616,7 @@
       <c r="A234" s="12"/>
       <c r="B234" s="12"/>
       <c r="C234" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="K234" s="12"/>
     </row>
@@ -5427,7 +5624,7 @@
       <c r="A235" s="12"/>
       <c r="B235" s="12"/>
       <c r="C235" s="1" t="s">
-        <v>190</v>
+        <v>349</v>
       </c>
       <c r="K235" s="12"/>
     </row>
@@ -5435,7 +5632,7 @@
       <c r="A236" s="12"/>
       <c r="B236" s="12"/>
       <c r="C236" s="1" t="s">
-        <v>193</v>
+        <v>348</v>
       </c>
       <c r="K236" s="12"/>
     </row>
@@ -5453,7 +5650,7 @@
       <c r="A239" s="12"/>
       <c r="B239" s="12"/>
       <c r="C239" s="1" t="s">
-        <v>188</v>
+        <v>347</v>
       </c>
       <c r="K239" s="12"/>
     </row>
@@ -5476,7 +5673,7 @@
       </c>
       <c r="C241" s="12"/>
       <c r="D241" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E241" s="12"/>
       <c r="F241" s="12"/>
@@ -5489,7 +5686,7 @@
       <c r="A242" s="12"/>
       <c r="B242" s="12"/>
       <c r="C242" s="1" t="s">
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="K242" s="12"/>
     </row>
@@ -5497,7 +5694,7 @@
       <c r="A243" s="12"/>
       <c r="B243" s="12"/>
       <c r="C243" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K243" s="12"/>
     </row>
@@ -5505,7 +5702,7 @@
       <c r="A244" s="12"/>
       <c r="B244" s="12"/>
       <c r="C244" s="1" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="K244" s="12"/>
     </row>
@@ -5513,7 +5710,7 @@
       <c r="A245" s="12"/>
       <c r="B245" s="12"/>
       <c r="C245" s="1" t="s">
-        <v>197</v>
+        <v>345</v>
       </c>
       <c r="K245" s="12"/>
     </row>
@@ -5521,7 +5718,7 @@
       <c r="A246" s="12"/>
       <c r="B246" s="12"/>
       <c r="C246" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="K246" s="12"/>
     </row>
@@ -5549,7 +5746,7 @@
       </c>
       <c r="C249" s="12"/>
       <c r="D249" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E249" s="12"/>
       <c r="F249" s="12"/>
@@ -5562,7 +5759,7 @@
       <c r="A250" s="12"/>
       <c r="B250" s="12"/>
       <c r="C250" s="1" t="s">
-        <v>185</v>
+        <v>343</v>
       </c>
       <c r="K250" s="12"/>
     </row>
@@ -5570,7 +5767,7 @@
       <c r="A251" s="12"/>
       <c r="B251" s="12"/>
       <c r="C251" s="1" t="s">
-        <v>192</v>
+        <v>342</v>
       </c>
       <c r="K251" s="12"/>
     </row>
@@ -5578,7 +5775,7 @@
       <c r="A252" s="12"/>
       <c r="B252" s="12"/>
       <c r="C252" s="1" t="s">
-        <v>196</v>
+        <v>341</v>
       </c>
       <c r="K252" s="12"/>
     </row>
@@ -5586,7 +5783,7 @@
       <c r="A253" s="12"/>
       <c r="B253" s="12"/>
       <c r="C253" s="1" t="s">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K253" s="12"/>
     </row>
@@ -5594,7 +5791,7 @@
       <c r="A254" s="12"/>
       <c r="B254" s="12"/>
       <c r="C254" s="1" t="s">
-        <v>199</v>
+        <v>344</v>
       </c>
       <c r="K254" s="12"/>
     </row>
@@ -5623,11 +5820,11 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="12"/>
       <c r="B258" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C258" s="12"/>
       <c r="D258" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E258" s="12"/>
       <c r="F258" s="12"/>
@@ -5640,7 +5837,7 @@
       <c r="A259" s="12"/>
       <c r="B259" s="12"/>
       <c r="C259" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="K259" s="12"/>
     </row>
@@ -5648,7 +5845,7 @@
       <c r="A260" s="12"/>
       <c r="B260" s="12"/>
       <c r="C260" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K260" s="12"/>
     </row>
@@ -5656,7 +5853,7 @@
       <c r="A261" s="12"/>
       <c r="B261" s="12"/>
       <c r="C261" s="1" t="s">
-        <v>198</v>
+        <v>339</v>
       </c>
       <c r="K261" s="12"/>
     </row>
@@ -5694,9 +5891,11 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B267" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -5709,11 +5908,11 @@
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="12"/>
       <c r="B268" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C268" s="12"/>
       <c r="D268" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E268" s="12"/>
       <c r="F268" s="12"/>
@@ -5726,16 +5925,16 @@
       <c r="A269" s="12"/>
       <c r="B269" s="12"/>
       <c r="C269" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E269" s="1">
         <v>1</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J269" s="14"/>
       <c r="K269" s="12"/>
@@ -5744,16 +5943,16 @@
       <c r="A270" s="12"/>
       <c r="B270" s="12"/>
       <c r="C270" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E270" s="1">
         <v>1</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J270" s="14"/>
       <c r="K270" s="12"/>
@@ -5762,16 +5961,16 @@
       <c r="A271" s="12"/>
       <c r="B271" s="12"/>
       <c r="C271" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E271" s="1">
         <v>1</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J271" s="14"/>
       <c r="K271" s="12"/>
@@ -5780,119 +5979,126 @@
       <c r="A272" s="12"/>
       <c r="B272" s="12"/>
       <c r="C272" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E272" s="1">
+        <v>2</v>
+      </c>
+      <c r="F272" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E272" s="1">
-        <v>2</v>
-      </c>
-      <c r="F272" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="J272" s="14"/>
       <c r="K272" s="12"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="12"/>
       <c r="B273" s="12"/>
       <c r="C273" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E273" s="1">
         <v>3</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J273" s="14"/>
       <c r="K273" s="12"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="12"/>
       <c r="B274" s="12"/>
       <c r="C274" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E274" s="1">
         <v>3</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J274" s="14"/>
       <c r="K274" s="12"/>
     </row>
     <row r="275" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="12"/>
       <c r="B275" s="12"/>
       <c r="C275" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E275" s="1">
         <v>2</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J275" s="14"/>
       <c r="K275" s="12"/>
     </row>
     <row r="276" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="12"/>
       <c r="B276" s="12"/>
       <c r="C276" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E276" s="1">
         <v>2</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J276" s="14"/>
       <c r="K276" s="12"/>
     </row>
     <row r="277" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="12"/>
       <c r="B277" s="12"/>
       <c r="C277" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E277" s="1">
         <v>2</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J277" s="14"/>
       <c r="K277" s="12"/>
     </row>
     <row r="278" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="12"/>
       <c r="B278" s="12"/>
       <c r="C278" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E278" s="1">
         <v>3</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="J278" s="14"/>
       <c r="K278" s="12"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -5910,11 +6116,11 @@
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="12"/>
       <c r="B280" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C280" s="12"/>
       <c r="D280" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E280" s="12"/>
       <c r="F280" s="12"/>
@@ -5927,33 +6133,34 @@
       <c r="A281" s="12"/>
       <c r="B281" s="12"/>
       <c r="C281" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E281" s="1">
         <v>2</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J281" s="14"/>
       <c r="K281" s="12"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="12"/>
       <c r="B282" s="12"/>
       <c r="C282" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E282" s="1">
         <v>1</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J282" s="14"/>
       <c r="K282" s="12"/>
@@ -5962,16 +6169,16 @@
       <c r="A283" s="12"/>
       <c r="B283" s="12"/>
       <c r="C283" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E283" s="1">
         <v>1</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J283" s="14"/>
       <c r="K283" s="12"/>
@@ -5980,33 +6187,34 @@
       <c r="A284" s="12"/>
       <c r="B284" s="12"/>
       <c r="C284" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E284" s="1">
         <v>2</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="J284" s="14"/>
       <c r="K284" s="12"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="12"/>
       <c r="B285" s="12"/>
       <c r="C285" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E285" s="1">
         <v>1</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J285" s="14"/>
       <c r="K285" s="12"/>
@@ -6015,33 +6223,34 @@
       <c r="A286" s="12"/>
       <c r="B286" s="12"/>
       <c r="C286" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E286" s="1">
         <v>2</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J286" s="14"/>
       <c r="K286" s="12"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="12"/>
       <c r="B287" s="12"/>
       <c r="C287" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E287" s="1">
         <v>1</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J287" s="14"/>
       <c r="K287" s="12"/>
@@ -6061,11 +6270,11 @@
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="12"/>
       <c r="B289" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C289" s="12"/>
       <c r="D289" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E289" s="12"/>
       <c r="F289" s="12"/>
@@ -6078,16 +6287,16 @@
       <c r="A290" s="12"/>
       <c r="B290" s="12"/>
       <c r="C290" s="1" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E290" s="1">
         <v>1</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J290" s="14"/>
       <c r="K290" s="12"/>
@@ -6096,33 +6305,34 @@
       <c r="A291" s="12"/>
       <c r="B291" s="12"/>
       <c r="C291" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E291" s="1">
         <v>2</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="J291" s="14"/>
       <c r="K291" s="12"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="12"/>
       <c r="B292" s="12"/>
       <c r="C292" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E292" s="1">
         <v>1</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J292" s="14"/>
       <c r="K292" s="12"/>
@@ -6131,17 +6341,18 @@
       <c r="A293" s="12"/>
       <c r="B293" s="12"/>
       <c r="C293" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E293" s="1">
         <v>3</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J293" s="14"/>
       <c r="K293" s="12"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
@@ -6163,7 +6374,7 @@
       </c>
       <c r="C295" s="12"/>
       <c r="D295" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E295" s="12"/>
       <c r="F295" s="12"/>
@@ -6176,16 +6387,16 @@
       <c r="A296" s="12"/>
       <c r="B296" s="12"/>
       <c r="C296" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E296" s="1">
         <v>1</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J296" s="14"/>
       <c r="K296" s="12"/>
@@ -6194,67 +6405,70 @@
       <c r="A297" s="12"/>
       <c r="B297" s="12"/>
       <c r="C297" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E297" s="1">
         <v>2</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J297" s="14"/>
       <c r="K297" s="12"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="12"/>
       <c r="B298" s="12"/>
       <c r="C298" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E298" s="1">
         <v>3</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J298" s="14"/>
       <c r="K298" s="12"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="12"/>
       <c r="B299" s="12"/>
       <c r="C299" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E299" s="1">
         <v>3</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J299" s="14"/>
       <c r="K299" s="12"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="12"/>
       <c r="B300" s="12"/>
       <c r="C300" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E300" s="1">
         <v>1</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J300" s="14"/>
       <c r="K300" s="12"/>
@@ -6263,68 +6477,72 @@
       <c r="A301" s="12"/>
       <c r="B301" s="12"/>
       <c r="C301" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E301" s="1">
         <v>2</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J301" s="14"/>
       <c r="K301" s="12"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="12"/>
       <c r="B302" s="12"/>
       <c r="C302" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E302" s="1">
         <v>2</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J302" s="14"/>
       <c r="K302" s="12"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="12"/>
       <c r="B303" s="12"/>
       <c r="C303" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E303" s="1">
         <v>2</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="J303" s="14"/>
       <c r="K303" s="12"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="12"/>
       <c r="B304" s="12"/>
       <c r="C304" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D304" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E304" s="1">
+        <v>3</v>
+      </c>
+      <c r="F304" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E304" s="1">
-        <v>3</v>
-      </c>
-      <c r="F304" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="J304" s="14"/>
       <c r="K304" s="12"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
@@ -6340,40 +6558,52 @@
       <c r="J305" s="12"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B306" s="10"/>
-      <c r="C306" s="10"/>
-      <c r="D306" s="10"/>
-      <c r="E306" s="10"/>
-      <c r="F306" s="10"/>
-      <c r="G306" s="10"/>
-      <c r="H306" s="10"/>
-      <c r="I306" s="10"/>
-      <c r="J306" s="10"/>
+      <c r="A306" s="12"/>
+      <c r="B306" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C306" s="12"/>
+      <c r="D306" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E306" s="12"/>
+      <c r="F306" s="12"/>
+      <c r="G306" s="12"/>
+      <c r="H306" s="12"/>
+      <c r="I306" s="12"/>
+      <c r="J306" s="12"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="12"/>
-      <c r="B307" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C307" s="12"/>
-      <c r="D307" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E307" s="12"/>
-      <c r="F307" s="12"/>
-      <c r="G307" s="12"/>
-      <c r="H307" s="12"/>
-      <c r="I307" s="12"/>
-      <c r="J307" s="12"/>
+      <c r="B307" s="12"/>
+      <c r="C307" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E307" s="1">
+        <v>2</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K307" s="12"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="12"/>
       <c r="B308" s="12"/>
       <c r="C308" s="1" t="s">
-        <v>181</v>
+        <v>364</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E308" s="1">
+        <v>1</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="K308" s="12"/>
     </row>
@@ -6381,48 +6611,84 @@
       <c r="A309" s="12"/>
       <c r="B309" s="12"/>
       <c r="C309" s="1" t="s">
-        <v>183</v>
+        <v>365</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E309" s="1">
+        <v>1</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="K309" s="12"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="12"/>
       <c r="B310" s="12"/>
+      <c r="C310" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E310" s="1">
+        <v>2</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="K310" s="12"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="12"/>
       <c r="B311" s="12"/>
-      <c r="C311" s="12"/>
-      <c r="D311" s="12"/>
-      <c r="E311" s="12"/>
-      <c r="F311" s="12"/>
-      <c r="G311" s="12"/>
-      <c r="H311" s="12"/>
-      <c r="I311" s="12"/>
-      <c r="J311" s="12"/>
+      <c r="C311" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E311" s="1">
+        <v>3</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K311" s="12"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="12"/>
-      <c r="B312" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C312" s="12"/>
-      <c r="D312" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E312" s="12"/>
-      <c r="F312" s="12"/>
-      <c r="G312" s="12"/>
-      <c r="H312" s="12"/>
-      <c r="I312" s="12"/>
-      <c r="J312" s="12"/>
+      <c r="B312" s="12"/>
+      <c r="C312" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E312" s="1">
+        <v>2</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K312" s="12"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="12"/>
       <c r="B313" s="12"/>
       <c r="C313" s="1" t="s">
-        <v>178</v>
+        <v>370</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E313" s="1">
+        <v>3</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="K313" s="12"/>
     </row>
@@ -6430,13 +6696,34 @@
       <c r="A314" s="12"/>
       <c r="B314" s="12"/>
       <c r="C314" s="1" t="s">
-        <v>180</v>
+        <v>368</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E314" s="1">
+        <v>2</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="K314" s="12"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="12"/>
       <c r="B315" s="12"/>
+      <c r="C315" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E315" s="1">
+        <v>3</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="K315" s="12"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
@@ -6452,89 +6739,89 @@
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="12"/>
       <c r="B318" s="12"/>
-      <c r="C318" s="12"/>
-      <c r="D318" s="12"/>
-      <c r="E318" s="12"/>
-      <c r="F318" s="12"/>
-      <c r="G318" s="12"/>
-      <c r="H318" s="12"/>
-      <c r="I318" s="12"/>
-      <c r="J318" s="12"/>
+      <c r="K318" s="12"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="12"/>
-      <c r="B319" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C319" s="12"/>
-      <c r="D319" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E319" s="12"/>
-      <c r="F319" s="12"/>
-      <c r="G319" s="12"/>
-      <c r="H319" s="12"/>
-      <c r="I319" s="12"/>
-      <c r="J319" s="12"/>
+      <c r="B319" s="12"/>
+      <c r="K319" s="12"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="12"/>
       <c r="B320" s="12"/>
-      <c r="C320" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K320" s="12"/>
+      <c r="C320" s="12"/>
+      <c r="D320" s="12"/>
+      <c r="E320" s="12"/>
+      <c r="F320" s="12"/>
+      <c r="G320" s="12"/>
+      <c r="H320" s="12"/>
+      <c r="I320" s="12"/>
+      <c r="J320" s="12"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="12"/>
-      <c r="B321" s="12"/>
-      <c r="C321" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K321" s="12"/>
+      <c r="A321" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B321" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C321" s="10"/>
+      <c r="D321" s="10"/>
+      <c r="E321" s="10"/>
+      <c r="F321" s="10"/>
+      <c r="G321" s="10"/>
+      <c r="H321" s="10"/>
+      <c r="I321" s="10"/>
+      <c r="J321" s="10"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="12"/>
-      <c r="B322" s="12"/>
-      <c r="C322" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K322" s="12"/>
+      <c r="B322" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C322" s="12"/>
+      <c r="D322" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E322" s="12"/>
+      <c r="F322" s="12"/>
+      <c r="G322" s="12"/>
+      <c r="H322" s="12"/>
+      <c r="I322" s="12"/>
+      <c r="J322" s="12"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="12"/>
       <c r="B323" s="12"/>
       <c r="C323" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="K323" s="12"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="12"/>
       <c r="B324" s="12"/>
+      <c r="C324" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="K324" s="12"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
-      <c r="C325" s="12"/>
-      <c r="D325" s="12"/>
-      <c r="E325" s="12"/>
-      <c r="F325" s="12"/>
-      <c r="G325" s="12"/>
-      <c r="H325" s="12"/>
-      <c r="I325" s="12"/>
-      <c r="J325" s="12"/>
+      <c r="K325" s="12"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="12"/>
-      <c r="B326" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="B326" s="12"/>
       <c r="C326" s="12"/>
-      <c r="D326" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="D326" s="12"/>
       <c r="E326" s="12"/>
       <c r="F326" s="12"/>
       <c r="G326" s="12"/>
@@ -6544,17 +6831,40 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="12"/>
-      <c r="B327" s="12"/>
-      <c r="K327" s="12"/>
+      <c r="B327" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C327" s="12"/>
+      <c r="D327" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E327" s="12"/>
+      <c r="F327" s="12"/>
+      <c r="G327" s="12"/>
+      <c r="H327" s="12"/>
+      <c r="I327" s="12"/>
+      <c r="J327" s="12"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="12"/>
       <c r="B328" s="12"/>
+      <c r="C328" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="K328" s="12"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="12"/>
       <c r="B329" s="12"/>
+      <c r="C329" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="K329" s="12"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
@@ -6565,27 +6875,162 @@
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="12"/>
       <c r="B331" s="12"/>
-      <c r="C331" s="12"/>
-      <c r="D331" s="12"/>
-      <c r="E331" s="12"/>
-      <c r="F331" s="12"/>
-      <c r="G331" s="12"/>
-      <c r="H331" s="12"/>
-      <c r="I331" s="12"/>
-      <c r="J331" s="12"/>
+      <c r="K331" s="12"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F332" s="1" t="s">
+      <c r="A332" s="12"/>
+      <c r="B332" s="12"/>
+      <c r="K332" s="12"/>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" s="12"/>
+      <c r="B333" s="12"/>
+      <c r="C333" s="12"/>
+      <c r="D333" s="12"/>
+      <c r="E333" s="12"/>
+      <c r="F333" s="12"/>
+      <c r="G333" s="12"/>
+      <c r="H333" s="12"/>
+      <c r="I333" s="12"/>
+      <c r="J333" s="12"/>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" s="12"/>
+      <c r="B334" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C334" s="12"/>
+      <c r="D334" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E334" s="12"/>
+      <c r="F334" s="12"/>
+      <c r="G334" s="12"/>
+      <c r="H334" s="12"/>
+      <c r="I334" s="12"/>
+      <c r="J334" s="12"/>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" s="12"/>
+      <c r="B335" s="12"/>
+      <c r="C335" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K335" s="12"/>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A336" s="12"/>
+      <c r="B336" s="12"/>
+      <c r="C336" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K336" s="12"/>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" s="12"/>
+      <c r="B337" s="12"/>
+      <c r="K337" s="12"/>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" s="12"/>
+      <c r="B338" s="12"/>
+      <c r="C338" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K338" s="12"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" s="12"/>
+      <c r="B339" s="12"/>
+      <c r="K339" s="12"/>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" s="12"/>
+      <c r="B340" s="12"/>
+      <c r="C340" s="12"/>
+      <c r="D340" s="12"/>
+      <c r="E340" s="12"/>
+      <c r="F340" s="12"/>
+      <c r="G340" s="12"/>
+      <c r="H340" s="12"/>
+      <c r="I340" s="12"/>
+      <c r="J340" s="12"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" s="12"/>
+      <c r="B341" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C341" s="12"/>
+      <c r="D341" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E341" s="12"/>
+      <c r="F341" s="12"/>
+      <c r="G341" s="12"/>
+      <c r="H341" s="12"/>
+      <c r="I341" s="12"/>
+      <c r="J341" s="12"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A342" s="12"/>
+      <c r="B342" s="12"/>
+      <c r="C342" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K342" s="12"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343" s="12"/>
+      <c r="B343" s="12"/>
+      <c r="K343" s="12"/>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" s="12"/>
+      <c r="B344" s="12"/>
+      <c r="K344" s="12"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345" s="12"/>
+      <c r="B345" s="12"/>
+      <c r="K345" s="12"/>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346" s="12"/>
+      <c r="B346" s="12"/>
+      <c r="C346" s="12"/>
+      <c r="D346" s="12"/>
+      <c r="E346" s="12"/>
+      <c r="F346" s="12"/>
+      <c r="G346" s="12"/>
+      <c r="H346" s="12"/>
+      <c r="I346" s="12"/>
+      <c r="J346" s="12"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F347" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G332" s="1">
+      <c r="G347" s="1">
         <v>80</v>
       </c>
-      <c r="H332" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I332" s="1" t="s">
-        <v>171</v>
+      <c r="H347" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
